--- a/KeywordDriven/Excel File/first_keysheet.xlsx
+++ b/KeywordDriven/Excel File/first_keysheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhib\source\repos\KeywordDriven\KeywordDriven\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BB86CD-F74C-4E29-A658-EE8088F3C2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D7914-5436-4C5E-9AF0-1C1CFA623E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBF446DD-EF0C-4514-9080-F701AEDA9CBC}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="9"/>
     </row>

--- a/KeywordDriven/Excel File/first_keysheet.xlsx
+++ b/KeywordDriven/Excel File/first_keysheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhib\source\repos\KeywordDriven\KeywordDriven\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D7914-5436-4C5E-9AF0-1C1CFA623E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4AF169-D8E0-47A8-B8A4-7676FE5A6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBF446DD-EF0C-4514-9080-F701AEDA9CBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBF446DD-EF0C-4514-9080-F701AEDA9CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="first_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Test Step</t>
   </si>
@@ -75,12 +76,6 @@
     <t>Cheez</t>
   </si>
   <si>
-    <t>hit search</t>
-  </si>
-  <si>
-    <t>name=btnK</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -88,6 +83,42 @@
   </si>
   <si>
     <t>quit</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>https://facebook.com</t>
+  </si>
+  <si>
+    <t>enter email</t>
+  </si>
+  <si>
+    <t>rishibodake20@gmail.com</t>
+  </si>
+  <si>
+    <t>enter password</t>
+  </si>
+  <si>
+    <t>id=pass</t>
+  </si>
+  <si>
+    <t>jocky1234#</t>
+  </si>
+  <si>
+    <t>hit login</t>
+  </si>
+  <si>
+    <t>id=u_0_b</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>id=email</t>
+  </si>
+  <si>
+    <t>enfield</t>
   </si>
 </sst>
 </file>
@@ -138,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,77 +181,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -229,9 +194,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -242,7 +205,20 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,20 +228,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,113 +553,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17859DAF-30E4-4476-A090-B4CF11C34321}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="9"/>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{F14D0577-657D-422B-A298-B93CFA3854BB}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A16C1B65-3A5E-4D54-A464-5F2552901E44}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{8C59B86B-1FCB-4032-8C73-1B9C1293E7C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020085D7-E638-43E9-BE8D-4AAFB8A4B052}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9028809305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{42B99F0C-F83B-4BB0-9680-BB516D62D922}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{C2D5FD02-5394-4313-A718-ED4BA029F053}"/>
+    <hyperlink ref="D8" r:id="rId3" display="rishibodake20@gmail.com" xr:uid="{62974EE8-18B6-4316-B679-3D81D37E9713}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KeywordDriven/Excel File/first_keysheet.xlsx
+++ b/KeywordDriven/Excel File/first_keysheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhib\source\repos\KeywordDriven\KeywordDriven\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4AF169-D8E0-47A8-B8A4-7676FE5A6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D9757-9430-4BAF-95A1-FE49C200FDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBF446DD-EF0C-4514-9080-F701AEDA9CBC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Test Step</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>id=email</t>
-  </si>
-  <si>
-    <t>enfield</t>
   </si>
 </sst>
 </file>
@@ -553,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17859DAF-30E4-4476-A090-B4CF11C34321}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,107 +635,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{F14D0577-657D-422B-A298-B93CFA3854BB}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{A16C1B65-3A5E-4D54-A464-5F2552901E44}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{8C59B86B-1FCB-4032-8C73-1B9C1293E7C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020085D7-E638-43E9-BE8D-4AAFB8A4B052}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -788,126 +700,69 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9028809305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{42B99F0C-F83B-4BB0-9680-BB516D62D922}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{C2D5FD02-5394-4313-A718-ED4BA029F053}"/>
-    <hyperlink ref="D8" r:id="rId3" display="rishibodake20@gmail.com" xr:uid="{62974EE8-18B6-4316-B679-3D81D37E9713}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{A16C1B65-3A5E-4D54-A464-5F2552901E44}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{8C59B86B-1FCB-4032-8C73-1B9C1293E7C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KeywordDriven/Excel File/first_keysheet.xlsx
+++ b/KeywordDriven/Excel File/first_keysheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhib\source\repos\KeywordDriven\KeywordDriven\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D9757-9430-4BAF-95A1-FE49C200FDD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF3F969-62D7-4A7E-B952-0694676986F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBF446DD-EF0C-4514-9080-F701AEDA9CBC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Test Step</t>
   </si>
@@ -94,9 +94,6 @@
     <t>enter email</t>
   </si>
   <si>
-    <t>rishibodake20@gmail.com</t>
-  </si>
-  <si>
     <t>enter password</t>
   </si>
   <si>
@@ -116,6 +113,24 @@
   </si>
   <si>
     <t>id=email</t>
+  </si>
+  <si>
+    <t>write status</t>
+  </si>
+  <si>
+    <t>xpath=//textarea[@name = 'xhpc_message']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> write something</t>
+  </si>
+  <si>
+    <t>Hello User</t>
+  </si>
+  <si>
+    <t>post button</t>
+  </si>
+  <si>
+    <t>xpath=//div[@class = '_45wg _69yt']</t>
   </si>
 </sst>
 </file>
@@ -225,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -235,6 +250,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,7 +569,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -647,7 +663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020085D7-E638-43E9-BE8D-4AAFB8A4B052}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -656,22 +672,22 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -708,35 +724,35 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
+      <c r="D4" s="6">
+        <v>9028809305</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -747,22 +763,64 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{A16C1B65-3A5E-4D54-A464-5F2552901E44}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{8C59B86B-1FCB-4032-8C73-1B9C1293E7C8}"/>
+    <hyperlink ref="D4" r:id="rId2" display="rishibodake20@gmail.com" xr:uid="{8C59B86B-1FCB-4032-8C73-1B9C1293E7C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
